--- a/biology/Biochimie/DAPI/DAPI.xlsx
+++ b/biology/Biochimie/DAPI/DAPI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le DAPI ou 4',6-diamidino-2-phénylindole est une molécule fluorescente capable de se lier fortement aux bases adénine (A) et thymine (T) de l'ADN. Le DAPI est un fluorochrome : quand le DAPI absorbe la lumière UV (350 nm), il émet une fluorescence bleue brillante (450-490 nm) [2], ce qui permet de détecter et quantifier l'ADN grâce à un microscope à fluorescence ou par cytométrie en flux.
+Le DAPI ou 4',6-diamidino-2-phénylindole est une molécule fluorescente capable de se lier fortement aux bases adénine (A) et thymine (T) de l'ADN. Le DAPI est un fluorochrome : quand le DAPI absorbe la lumière UV (350 nm), il émet une fluorescence bleue brillante (450-490 nm) , ce qui permet de détecter et quantifier l'ADN grâce à un microscope à fluorescence ou par cytométrie en flux.
 </t>
         </is>
       </c>
